--- a/xlsx/孟加拉_intext.xlsx
+++ b/xlsx/孟加拉_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>孟加拉</t>
   </si>
@@ -29,7 +29,7 @@
     <t>孟加拉国</t>
   </si>
   <si>
-    <t>政策_政策_美國_孟加拉</t>
+    <t>政策_政策_美国_孟加拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E5%8D%A1</t>
   </si>
   <si>
-    <t>達卡</t>
+    <t>达卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%88%BE%E5%90%84%E7%AD%94</t>
   </si>
   <si>
-    <t>加爾各答</t>
+    <t>加尔各答</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%A4%A7%E6%B8%AF</t>
@@ -77,19 +77,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E7%88%BE%E8%B5%AB%E7%89%B9</t>
   </si>
   <si>
-    <t>錫爾赫特</t>
+    <t>锡尔赫特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>官方語言</t>
+    <t>官方语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E8%AA%9E</t>
   </si>
   <si>
-    <t>孟加拉語</t>
+    <t>孟加拉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6</t>
@@ -155,15 +155,9 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B0%94%E5%90%84%E7%AD%94</t>
   </si>
   <si>
-    <t>加尔各答</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E5%8D%A1</t>
   </si>
   <si>
-    <t>达卡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E7%8B%AC%E7%AB%8B%E8%BF%90%E5%8A%A8</t>
   </si>
   <si>
@@ -245,13 +239,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E7%81%A3</t>
   </si>
   <si>
-    <t>孟加拉灣</t>
+    <t>孟加拉湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
   </si>
   <si>
-    <t>緬甸</t>
+    <t>缅甸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89_(%E5%9C%B0%E5%8D%80)</t>
@@ -1269,7 +1263,7 @@
         <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1295,10 +1289,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1324,10 +1318,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1353,10 +1347,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1382,10 +1376,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1411,10 +1405,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1440,10 +1434,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1469,10 +1463,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1498,10 +1492,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1527,10 +1521,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1556,10 +1550,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1585,10 +1579,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1614,10 +1608,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>3</v>
@@ -1643,10 +1637,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1672,10 +1666,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1701,10 +1695,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1730,10 +1724,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1759,10 +1753,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -1788,10 +1782,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>81</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>

--- a/xlsx/孟加拉_intext.xlsx
+++ b/xlsx/孟加拉_intext.xlsx
@@ -29,7 +29,7 @@
     <t>孟加拉国</t>
   </si>
   <si>
-    <t>政策_政策_美國_孟加拉</t>
+    <t>体育运动_体育运动_明成祖_孟加拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
